--- a/easyicc-web/easyicc-client-api/src/main/resources/doc/chat.xlsx
+++ b/easyicc-web/easyicc-client-api/src/main/resources/doc/chat.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="JS_AUTO_RESPONSE_MESSAGE" sheetId="28" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <sheet name="JS_REBOT_WORDS" sheetId="22" r:id="rId37"/>
     <sheet name="JS_SKIN_CONF" sheetId="23" r:id="rId38"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="381">
   <si>
     <t>客服姓名</t>
   </si>
@@ -610,560 +610,631 @@
     <t>CHAT_TYPE</t>
   </si>
   <si>
+    <t>OPINION</t>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+  </si>
+  <si>
+    <t>RESEVE_KEY</t>
+  </si>
+  <si>
+    <t>REFER_PAGE</t>
+  </si>
+  <si>
+    <t>SEARCH_ENGINE_NAME</t>
+  </si>
+  <si>
+    <t>CLOSE_TYPE</t>
+  </si>
+  <si>
+    <t>IS_QC</t>
+  </si>
+  <si>
+    <t>USER_TIMEOUT_TIMES</t>
+  </si>
+  <si>
+    <t>CHAT_CATEGORY</t>
+  </si>
+  <si>
+    <t>IS_VIDEO</t>
+  </si>
+  <si>
+    <t>MEET_USERS</t>
+  </si>
+  <si>
+    <t>MEET_VISITORS</t>
+  </si>
+  <si>
+    <t>MEET_VISITORS_NUM</t>
+  </si>
+  <si>
+    <t>MEET_USERS_NUM</t>
+  </si>
+  <si>
+    <t>EXT_COLUM1</t>
+  </si>
+  <si>
+    <t>EXT_COLUM2</t>
+  </si>
+  <si>
+    <t>EXT_COLUM3</t>
+  </si>
+  <si>
+    <t>EXT_COLUM4</t>
+  </si>
+  <si>
+    <t>EXT_COLUM5</t>
+  </si>
+  <si>
+    <t>EXT_COLUM6</t>
+  </si>
+  <si>
+    <t>TRANS_TO_USER</t>
+  </si>
+  <si>
+    <t>TRANS_FROM_CHAT_ID</t>
+  </si>
+  <si>
+    <t>CHAT_URL2</t>
+  </si>
+  <si>
+    <t>VISITOR_FIRST_TIME</t>
+  </si>
+  <si>
+    <t>USER_FIRST_RESP_TIME</t>
+  </si>
+  <si>
+    <t>LAST_MESSAGE_TIME</t>
+  </si>
+  <si>
+    <t>EFFECT_TIME</t>
+  </si>
+  <si>
+    <t>USER_REAL_NAME</t>
+  </si>
+  <si>
+    <t>TRANS_FROM_USER_REAL_NAME</t>
+  </si>
+  <si>
+    <t>TRANS_TO_USER_REAL_NAME</t>
+  </si>
+  <si>
+    <t>GLOBAL_STATIC_ID</t>
+  </si>
+  <si>
+    <t>DESP</t>
+  </si>
+  <si>
+    <t>B_OPINION</t>
+  </si>
+  <si>
+    <t>TYPE_1</t>
+  </si>
+  <si>
+    <t>TYPE_2</t>
+  </si>
+  <si>
+    <t>TYPE_3</t>
+  </si>
+  <si>
+    <t>NUMMARIZE</t>
+  </si>
+  <si>
+    <t>NAME_1</t>
+  </si>
+  <si>
+    <t>NAME_2</t>
+  </si>
+  <si>
+    <t>NAME_3</t>
+  </si>
+  <si>
+    <t>CHAT_GROUP_ID</t>
+  </si>
+  <si>
+    <t>SEND_ID</t>
+  </si>
+  <si>
+    <t>SEND_NAME</t>
+  </si>
+  <si>
+    <t>SEND_TYPE</t>
+  </si>
+  <si>
+    <t>JOIN_TIME</t>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+  </si>
+  <si>
+    <t>ROUTINE_NAME</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>DEFAULT_REPLY</t>
+  </si>
+  <si>
+    <t>DELAY_TIME</t>
+  </si>
+  <si>
+    <t>DEFAULT_REPLY_OF_PHONE</t>
+  </si>
+  <si>
+    <t>DELAY_TIME_OF_PHONE</t>
+  </si>
+  <si>
+    <t>RESPONSE_BODY</t>
+  </si>
+  <si>
+    <t>ORDER_NUMBER</t>
+  </si>
+  <si>
+    <t>ROUTINE_ID</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>User_Id</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>JRAS_ID</t>
+  </si>
+  <si>
+    <t>主键id</t>
+  </si>
+  <si>
+    <t>公司id</t>
+  </si>
+  <si>
+    <t>客服id</t>
+  </si>
+  <si>
+    <t>JRGS_ID</t>
+  </si>
+  <si>
+    <t>关联普通筛选的页签id</t>
+  </si>
+  <si>
+    <t>ADVANCED_SCREENING_NAME</t>
+  </si>
+  <si>
+    <t>高级筛选表单名称</t>
+  </si>
+  <si>
+    <t>FIRST_SELECT_FIELD</t>
+  </si>
+  <si>
+    <t>第一组筛选</t>
+  </si>
+  <si>
+    <t>SECOND_SELECT_FIELD</t>
+  </si>
+  <si>
+    <t>第二组筛选</t>
+  </si>
+  <si>
+    <t>RELATIONSHIP_FIRST_SECOND</t>
+  </si>
+  <si>
+    <t>第一组与第二组之间的条件关系 0(and);1(or)</t>
+  </si>
+  <si>
+    <t>UPDATE_TIME</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>DOWNLOAD_USER_ID</t>
+  </si>
+  <si>
+    <t>下载人</t>
+  </si>
+  <si>
+    <t>RECORD_ID</t>
+  </si>
+  <si>
+    <t>导出记录id</t>
+  </si>
+  <si>
+    <t>DOWNLOAD_TIME</t>
+  </si>
+  <si>
+    <t>下载时间</t>
+  </si>
+  <si>
+    <t>GENERAL_SCREENING_NAME</t>
+  </si>
+  <si>
+    <t>筛选页签名称</t>
+  </si>
+  <si>
+    <t>SELECT_FIELD</t>
+  </si>
+  <si>
+    <t>筛选页签条件集合</t>
+  </si>
+  <si>
+    <t>LABEL_INDICATION</t>
+  </si>
+  <si>
+    <t>页签标识 0全部记录、1我的记录、2他人记录</t>
+  </si>
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>RESULT_FIELD</t>
+  </si>
+  <si>
+    <t>自定义显示列</t>
+  </si>
+  <si>
+    <t>FIXED_DISPLAY_COLUMNS</t>
+  </si>
+  <si>
+    <t>默认0; 0(不固定列展示);1(前1列固定展示);</t>
+  </si>
+  <si>
+    <t>是否为默认页签 0,（自定义）1</t>
+  </si>
+  <si>
+    <t>BATCH_EDITOR_SETTING</t>
+  </si>
+  <si>
+    <t>批量编辑配置</t>
+  </si>
+  <si>
+    <t>SELECT_FIELD_ID</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>CREATE_DATETIME</t>
+  </si>
+  <si>
+    <t>UPDATE_DATETIME</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>用户名称</t>
+  </si>
+  <si>
+    <t>搜索条件字段</t>
+  </si>
+  <si>
+    <t>结果显示字段</t>
+  </si>
+  <si>
+    <t>IS_SELECT</t>
+  </si>
+  <si>
+    <t>是否为搜索，值为搜索或者结果</t>
+  </si>
+  <si>
+    <t>CONFIGURATION_NAME</t>
+  </si>
+  <si>
+    <t>配置名称</t>
+  </si>
+  <si>
+    <t>TITLE_SET</t>
+  </si>
+  <si>
+    <t>0(默认主题);1(暗夜主题);2(火山红);3(日暮黄);4(青柠绿);5(极光紫)</t>
+  </si>
+  <si>
+    <t>SCROLL_BAR</t>
+  </si>
+  <si>
+    <t>滚动条 0(宽);1(中);2(窄)</t>
+  </si>
+  <si>
+    <t>FROM_FONTSIZE</t>
+  </si>
+  <si>
+    <t>字体大小(主表格) 0(大);1(中);2(小)</t>
+  </si>
+  <si>
+    <t>FROM_ROWSPACING</t>
+  </si>
+  <si>
+    <t>行间距(主表格) 0(大);1(中);2(小)</t>
+  </si>
+  <si>
+    <t>ZEBRA_CROSSING</t>
+  </si>
+  <si>
+    <t>斑马线 0(有);1(无)</t>
+  </si>
+  <si>
+    <t>ROW_LINE</t>
+  </si>
+  <si>
+    <t>行线 0(有);1(无)</t>
+  </si>
+  <si>
+    <t>COL_LINE</t>
+  </si>
+  <si>
+    <t>列线 0(有);1(无)</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTARY_READ</t>
+  </si>
+  <si>
+    <t>辅助阅读 0(关闭);1(启用)</t>
+  </si>
+  <si>
+    <t>AUTOMATIC_LINE</t>
+  </si>
+  <si>
+    <t>自动换行 0(关闭);1(启用)</t>
+  </si>
+  <si>
+    <t>FOLD_FONTSIZE</t>
+  </si>
+  <si>
+    <t>字体大小(折叠列表) 0(大);1(中);2(小)</t>
+  </si>
+  <si>
+    <t>FOLD_ROWSPACING</t>
+  </si>
+  <si>
+    <t>行间距(折叠列表) 0(大);1(中);2(小)</t>
+  </si>
+  <si>
+    <t>AUTOMATIC_POP</t>
+  </si>
+  <si>
+    <t>自动弹出 0(关闭);1(启用)</t>
+  </si>
+  <si>
+    <t>BUBBLE_GROUP</t>
+  </si>
+  <si>
+    <t>气泡组 0(关闭);1(启用)</t>
+  </si>
+  <si>
+    <t>DATA_SELECTION</t>
+  </si>
+  <si>
+    <t>数据选择 0(导出筛选数据);1(导出选中数据)</t>
+  </si>
+  <si>
+    <t>FORMAT_SELECTION</t>
+  </si>
+  <si>
+    <t>格式选择 0(Excel);1(HTML);2(CSV)</t>
+  </si>
+  <si>
+    <t>QUERY_SET</t>
+  </si>
+  <si>
+    <t>询问设置（每次导出时提醒） 0(关闭);1(启用)</t>
+  </si>
+  <si>
+    <t>SYSTEM_INFORM</t>
+  </si>
+  <si>
+    <t>提醒设置（系统通知） 0(关闭);1(启用)</t>
+  </si>
+  <si>
+    <t>VOICE_WARN</t>
+  </si>
+  <si>
+    <t>提醒设置（声音提醒）0(关闭);1(启用)</t>
+  </si>
+  <si>
+    <t>ADVANCED_SCREENING_SWITCH</t>
+  </si>
+  <si>
+    <t>高级筛选是否开启 0(关闭);1(启用)</t>
+  </si>
+  <si>
+    <t>RESULT_ID</t>
+  </si>
+  <si>
+    <t>CATEGORY_ID</t>
+  </si>
+  <si>
+    <t>ITEM_ID</t>
+  </si>
+  <si>
+    <t>TIMES</t>
+  </si>
+  <si>
+    <t>ISQC</t>
+  </si>
+  <si>
+    <t>FULL_SCORE</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>REVISEDCONTENT</t>
+  </si>
+  <si>
+    <t>TEMP_FLAG</t>
+  </si>
+  <si>
+    <t>MODIFY_TIMES</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_BAK</t>
+  </si>
+  <si>
+    <t>ITEM_NAME</t>
+  </si>
+  <si>
+    <t>ITEM_SCORE</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>ORDER_INDEX</t>
+  </si>
+  <si>
+    <t>CATEGORY_NAME</t>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RECORDER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISITOR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISITOR_STATIC_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OPINION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INVITE_MODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EFFECTIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MSG_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SUMMARIZE</t>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-  </si>
-  <si>
-    <t>END_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISITOR_IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ALL_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FIRST_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RESEVE_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IS_CONNECTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>USER_MSG_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VISITOR_MSG_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QUESTION_TYPE</t>
-  </si>
-  <si>
-    <t>REFER_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TRANS_FROM_USER</t>
-  </si>
-  <si>
-    <t>SEARCH_ENGINE_NAME</t>
-  </si>
-  <si>
-    <t>CLOSE_TYPE</t>
-  </si>
-  <si>
-    <t>IS_QC</t>
-  </si>
-  <si>
-    <t>USER_TIMEOUT_TIMES</t>
-  </si>
-  <si>
-    <t>CHAT_CATEGORY</t>
-  </si>
-  <si>
-    <t>IS_VIDEO</t>
-  </si>
-  <si>
-    <t>MEET_USERS</t>
-  </si>
-  <si>
-    <t>MEET_VISITORS</t>
-  </si>
-  <si>
-    <t>MEET_VISITORS_NUM</t>
-  </si>
-  <si>
-    <t>MEET_USERS_NUM</t>
-  </si>
-  <si>
-    <t>EXT_COLUM1</t>
-  </si>
-  <si>
-    <t>EXT_COLUM2</t>
-  </si>
-  <si>
-    <t>EXT_COLUM3</t>
-  </si>
-  <si>
-    <t>EXT_COLUM4</t>
-  </si>
-  <si>
-    <t>EXT_COLUM5</t>
-  </si>
-  <si>
-    <t>EXT_COLUM6</t>
-  </si>
-  <si>
-    <t>TRANS_TO_USER</t>
-  </si>
-  <si>
-    <t>TRANS_FROM_CHAT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISITOR_LOCATION_CITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISITOR_LOCATION_PROVINCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISITOR_LOCATION_COUNTRY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROMOTION_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CHAT_URL</t>
-  </si>
-  <si>
-    <t>CHAT_URL2</t>
-  </si>
-  <si>
-    <t>VISITOR_FIRST_TIME</t>
-  </si>
-  <si>
-    <t>USER_FIRST_RESP_TIME</t>
-  </si>
-  <si>
-    <t>LAST_MESSAGE_TIME</t>
-  </si>
-  <si>
-    <t>EFFECT_TIME</t>
-  </si>
-  <si>
-    <t>USER_REAL_NAME</t>
-  </si>
-  <si>
-    <t>TRANS_FROM_USER_REAL_NAME</t>
-  </si>
-  <si>
-    <t>TRANS_TO_USER_REAL_NAME</t>
-  </si>
-  <si>
-    <t>GLOBAL_STATIC_ID</t>
-  </si>
-  <si>
-    <t>DESP</t>
-  </si>
-  <si>
-    <t>B_OPINION</t>
-  </si>
-  <si>
-    <t>TYPE_1</t>
-  </si>
-  <si>
-    <t>TYPE_2</t>
-  </si>
-  <si>
-    <t>TYPE_3</t>
-  </si>
-  <si>
-    <t>NUMMARIZE</t>
-  </si>
-  <si>
-    <t>NAME_1</t>
-  </si>
-  <si>
-    <t>NAME_2</t>
-  </si>
-  <si>
-    <t>NAME_3</t>
-  </si>
-  <si>
-    <t>CHAT_GROUP_ID</t>
-  </si>
-  <si>
-    <t>SEND_ID</t>
-  </si>
-  <si>
-    <t>SEND_NAME</t>
-  </si>
-  <si>
-    <t>SEND_TYPE</t>
-  </si>
-  <si>
-    <t>JOIN_TIME</t>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-  </si>
-  <si>
-    <t>ROUTINE_NAME</t>
-  </si>
-  <si>
-    <t>CONDITION</t>
-  </si>
-  <si>
-    <t>DEFAULT_REPLY</t>
-  </si>
-  <si>
-    <t>DELAY_TIME</t>
-  </si>
-  <si>
-    <t>DEFAULT_REPLY_OF_PHONE</t>
-  </si>
-  <si>
-    <t>DELAY_TIME_OF_PHONE</t>
-  </si>
-  <si>
-    <t>RESPONSE_BODY</t>
-  </si>
-  <si>
-    <t>ORDER_NUMBER</t>
-  </si>
-  <si>
-    <t>ROUTINE_ID</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>User_Id</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>JRAS_ID</t>
-  </si>
-  <si>
-    <t>主键id</t>
-  </si>
-  <si>
-    <t>公司id</t>
-  </si>
-  <si>
-    <t>客服id</t>
-  </si>
-  <si>
-    <t>JRGS_ID</t>
-  </si>
-  <si>
-    <t>关联普通筛选的页签id</t>
-  </si>
-  <si>
-    <t>ADVANCED_SCREENING_NAME</t>
-  </si>
-  <si>
-    <t>高级筛选表单名称</t>
-  </si>
-  <si>
-    <t>FIRST_SELECT_FIELD</t>
-  </si>
-  <si>
-    <t>第一组筛选</t>
-  </si>
-  <si>
-    <t>SECOND_SELECT_FIELD</t>
-  </si>
-  <si>
-    <t>第二组筛选</t>
-  </si>
-  <si>
-    <t>RELATIONSHIP_FIRST_SECOND</t>
-  </si>
-  <si>
-    <t>第一组与第二组之间的条件关系 0(and);1(or)</t>
-  </si>
-  <si>
-    <t>UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>DOWNLOAD_USER_ID</t>
-  </si>
-  <si>
-    <t>下载人</t>
-  </si>
-  <si>
-    <t>RECORD_ID</t>
-  </si>
-  <si>
-    <t>导出记录id</t>
-  </si>
-  <si>
-    <t>DOWNLOAD_TIME</t>
-  </si>
-  <si>
-    <t>下载时间</t>
-  </si>
-  <si>
-    <t>GENERAL_SCREENING_NAME</t>
-  </si>
-  <si>
-    <t>筛选页签名称</t>
-  </si>
-  <si>
-    <t>SELECT_FIELD</t>
-  </si>
-  <si>
-    <t>筛选页签条件集合</t>
-  </si>
-  <si>
-    <t>LABEL_INDICATION</t>
-  </si>
-  <si>
-    <t>页签标识 0全部记录、1我的记录、2他人记录</t>
-  </si>
-  <si>
-    <t>RANK</t>
-  </si>
-  <si>
-    <t>RESULT_FIELD</t>
-  </si>
-  <si>
-    <t>自定义显示列</t>
-  </si>
-  <si>
-    <t>FIXED_DISPLAY_COLUMNS</t>
-  </si>
-  <si>
-    <t>默认0; 0(不固定列展示);1(前1列固定展示);</t>
-  </si>
-  <si>
-    <t>是否为默认页签 0,（自定义）1</t>
-  </si>
-  <si>
-    <t>BATCH_EDITOR_SETTING</t>
-  </si>
-  <si>
-    <t>批量编辑配置</t>
-  </si>
-  <si>
-    <t>SELECT_FIELD_ID</t>
-  </si>
-  <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>CREATE_DATETIME</t>
-  </si>
-  <si>
-    <t>UPDATE_DATETIME</t>
-  </si>
-  <si>
-    <t>VERSION</t>
-  </si>
-  <si>
-    <t>版本</t>
-  </si>
-  <si>
-    <t>用户ID</t>
-  </si>
-  <si>
-    <t>用户名称</t>
-  </si>
-  <si>
-    <t>搜索条件字段</t>
-  </si>
-  <si>
-    <t>结果显示字段</t>
-  </si>
-  <si>
-    <t>IS_SELECT</t>
-  </si>
-  <si>
-    <t>是否为搜索，值为搜索或者结果</t>
-  </si>
-  <si>
-    <t>CONFIGURATION_NAME</t>
-  </si>
-  <si>
-    <t>配置名称</t>
-  </si>
-  <si>
-    <t>TITLE_SET</t>
-  </si>
-  <si>
-    <t>0(默认主题);1(暗夜主题);2(火山红);3(日暮黄);4(青柠绿);5(极光紫)</t>
-  </si>
-  <si>
-    <t>SCROLL_BAR</t>
-  </si>
-  <si>
-    <t>滚动条 0(宽);1(中);2(窄)</t>
-  </si>
-  <si>
-    <t>FROM_FONTSIZE</t>
-  </si>
-  <si>
-    <t>字体大小(主表格) 0(大);1(中);2(小)</t>
-  </si>
-  <si>
-    <t>FROM_ROWSPACING</t>
-  </si>
-  <si>
-    <t>行间距(主表格) 0(大);1(中);2(小)</t>
-  </si>
-  <si>
-    <t>ZEBRA_CROSSING</t>
-  </si>
-  <si>
-    <t>斑马线 0(有);1(无)</t>
-  </si>
-  <si>
-    <t>ROW_LINE</t>
-  </si>
-  <si>
-    <t>行线 0(有);1(无)</t>
-  </si>
-  <si>
-    <t>COL_LINE</t>
-  </si>
-  <si>
-    <t>列线 0(有);1(无)</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTARY_READ</t>
-  </si>
-  <si>
-    <t>辅助阅读 0(关闭);1(启用)</t>
-  </si>
-  <si>
-    <t>AUTOMATIC_LINE</t>
-  </si>
-  <si>
-    <t>自动换行 0(关闭);1(启用)</t>
-  </si>
-  <si>
-    <t>FOLD_FONTSIZE</t>
-  </si>
-  <si>
-    <t>字体大小(折叠列表) 0(大);1(中);2(小)</t>
-  </si>
-  <si>
-    <t>FOLD_ROWSPACING</t>
-  </si>
-  <si>
-    <t>行间距(折叠列表) 0(大);1(中);2(小)</t>
-  </si>
-  <si>
-    <t>AUTOMATIC_POP</t>
-  </si>
-  <si>
-    <t>自动弹出 0(关闭);1(启用)</t>
-  </si>
-  <si>
-    <t>BUBBLE_GROUP</t>
-  </si>
-  <si>
-    <t>气泡组 0(关闭);1(启用)</t>
-  </si>
-  <si>
-    <t>DATA_SELECTION</t>
-  </si>
-  <si>
-    <t>数据选择 0(导出筛选数据);1(导出选中数据)</t>
-  </si>
-  <si>
-    <t>FORMAT_SELECTION</t>
-  </si>
-  <si>
-    <t>格式选择 0(Excel);1(HTML);2(CSV)</t>
-  </si>
-  <si>
-    <t>QUERY_SET</t>
-  </si>
-  <si>
-    <t>询问设置（每次导出时提醒） 0(关闭);1(启用)</t>
-  </si>
-  <si>
-    <t>SYSTEM_INFORM</t>
-  </si>
-  <si>
-    <t>提醒设置（系统通知） 0(关闭);1(启用)</t>
-  </si>
-  <si>
-    <t>VOICE_WARN</t>
-  </si>
-  <si>
-    <t>提醒设置（声音提醒）0(关闭);1(启用)</t>
-  </si>
-  <si>
-    <t>ADVANCED_SCREENING_SWITCH</t>
-  </si>
-  <si>
-    <t>高级筛选是否开启 0(关闭);1(启用)</t>
-  </si>
-  <si>
-    <t>RESULT_ID</t>
-  </si>
-  <si>
-    <t>CATEGORY_ID</t>
-  </si>
-  <si>
-    <t>ITEM_ID</t>
-  </si>
-  <si>
-    <t>TIMES</t>
-  </si>
-  <si>
-    <t>ISQC</t>
-  </si>
-  <si>
-    <t>FULL_SCORE</t>
-  </si>
-  <si>
-    <t>COMMENTS</t>
-  </si>
-  <si>
-    <t>REVISEDCONTENT</t>
-  </si>
-  <si>
-    <t>TEMP_FLAG</t>
-  </si>
-  <si>
-    <t>MODIFY_TIMES</t>
-  </si>
-  <si>
-    <t>ITEM_NAME_BAK</t>
-  </si>
-  <si>
-    <t>ITEM_NAME</t>
-  </si>
-  <si>
-    <t>ITEM_SCORE</t>
-  </si>
-  <si>
-    <t>STATE</t>
-  </si>
-  <si>
-    <t>ORDER_INDEX</t>
-  </si>
-  <si>
-    <t>CATEGORY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1173,6 +1244,29 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1199,8 +1293,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1549,10 +1647,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -1578,7 +1676,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -1607,7 +1705,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -1636,7 +1734,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -1673,7 +1771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1681,7 +1779,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
@@ -1710,7 +1808,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1803,7 +1901,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1835,7 +1933,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -1880,7 +1978,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
@@ -1909,7 +2007,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1941,7 +2039,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1973,7 +2071,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2005,7 +2103,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2037,7 +2135,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2069,7 +2167,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2101,7 +2199,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2133,7 +2231,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2210,7 +2308,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2242,7 +2340,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2274,7 +2372,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2306,7 +2404,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -2364,7 +2462,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2396,7 +2494,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -2560,7 +2658,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2621,7 +2719,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2698,7 +2796,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -2759,7 +2857,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -2862,7 +2960,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -2952,7 +3050,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2984,7 +3082,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -3045,7 +3143,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -3086,11 +3184,12 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4893,7 +4992,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -4922,7 +5021,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -4951,7 +5050,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -5009,7 +5108,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -5041,7 +5140,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -5073,7 +5172,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -5105,7 +5204,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -5334,7 +5433,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -5363,7 +5462,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -5395,7 +5494,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -5607,7 +5706,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
@@ -5625,7 +5724,7 @@
         <v>-1</v>
       </c>
       <c r="G1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="K1">
         <v>0</v>
@@ -5657,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -5689,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -5706,7 +5805,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -5724,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -5738,7 +5837,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -5756,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -5773,7 +5872,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -5791,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -5805,7 +5904,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -5823,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -5837,7 +5936,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -5855,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -5901,7 +6000,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -5919,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -5942,14 +6041,17 @@
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P68"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
@@ -5978,7 +6080,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -6007,7 +6109,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -6039,7 +6141,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -6071,7 +6173,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -6100,7 +6202,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -6132,7 +6234,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>358</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -6164,7 +6266,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -6193,7 +6295,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -6222,7 +6324,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -6251,10 +6353,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C11">
         <v>400</v>
@@ -6280,7 +6382,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>362</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -6309,7 +6411,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
@@ -6337,8 +6439,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>194</v>
+      <c r="A14" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
@@ -6366,8 +6468,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>195</v>
+      <c r="A15" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -6398,8 +6500,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>196</v>
+      <c r="A16" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
@@ -6428,7 +6530,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -6457,7 +6559,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
@@ -6485,8 +6587,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>199</v>
+      <c r="A19" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -6513,41 +6615,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20">
+    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
         <v>2000</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>-1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>374</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -6575,8 +6677,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>201</v>
+      <c r="A22" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -6607,8 +6709,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>96</v>
+      <c r="A23" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -6639,8 +6741,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>97</v>
+      <c r="A24" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -6671,8 +6773,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>98</v>
+      <c r="A25" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -6703,8 +6805,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>95</v>
+      <c r="A26" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -6735,7 +6837,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B27" t="s">
@@ -6764,8 +6866,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>202</v>
+      <c r="A28" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -6796,7 +6898,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B29" t="s">
@@ -6828,8 +6930,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>203</v>
+      <c r="A30" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
@@ -6857,7 +6959,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B31" t="s">
@@ -6886,8 +6988,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="A32" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B32" t="s">
         <v>54</v>
@@ -6915,8 +7017,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>205</v>
+      <c r="A33" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
@@ -6944,8 +7046,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>206</v>
+      <c r="A34" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B34" t="s">
         <v>54</v>
@@ -6973,7 +7075,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B35" t="s">
@@ -7002,8 +7104,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>207</v>
+      <c r="A36" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
@@ -7031,8 +7133,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>208</v>
+      <c r="A37" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -7063,8 +7165,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>209</v>
+      <c r="A38" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -7095,8 +7197,8 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>210</v>
+      <c r="A39" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B39" t="s">
         <v>54</v>
@@ -7124,8 +7226,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>211</v>
+      <c r="A40" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
@@ -7153,8 +7255,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>212</v>
+      <c r="A41" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -7185,8 +7287,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>213</v>
+      <c r="A42" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -7217,8 +7319,8 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>214</v>
+      <c r="A43" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -7249,8 +7351,8 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>215</v>
+      <c r="A44" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -7281,8 +7383,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>216</v>
+      <c r="A45" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -7313,8 +7415,8 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>217</v>
+      <c r="A46" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -7345,8 +7447,8 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>218</v>
+      <c r="A47" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -7377,8 +7479,8 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>219</v>
+      <c r="A48" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
@@ -7406,8 +7508,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>220</v>
+      <c r="A49" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -7438,7 +7540,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B50" t="s">
@@ -7534,7 +7636,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B53" t="s">
@@ -7566,8 +7668,8 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>65</v>
+      <c r="A54" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
@@ -7598,8 +7700,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>221</v>
+      <c r="A55" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -7630,7 +7732,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B56" t="s">
@@ -7663,7 +7765,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B57" t="s">
         <v>72</v>
@@ -7692,7 +7794,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B58" t="s">
         <v>72</v>
@@ -7721,7 +7823,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B59" t="s">
         <v>72</v>
@@ -7750,7 +7852,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B60" t="s">
         <v>54</v>
@@ -7781,7 +7883,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B61" t="s">
@@ -7813,8 +7915,8 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>226</v>
+      <c r="A62" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
@@ -7878,7 +7980,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -7910,7 +8012,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -8005,8 +8107,8 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>229</v>
+      <c r="A68" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
@@ -8039,6 +8141,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8047,14 +8150,18 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>354</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
@@ -8141,7 +8248,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -11519,7 +11626,7 @@
         <v>-1</v>
       </c>
       <c r="G1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="K1">
         <v>0</v>
@@ -11551,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -11583,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -11600,7 +11707,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -11618,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -11635,7 +11742,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -11653,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -11667,7 +11774,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -11685,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -14239,7 +14346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -14568,7 +14675,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
@@ -14586,7 +14693,7 @@
         <v>-1</v>
       </c>
       <c r="G1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="K1">
         <v>0</v>
@@ -14618,7 +14725,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -14650,7 +14757,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -14667,7 +14774,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -14685,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -14702,7 +14809,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -14720,7 +14827,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -14734,7 +14841,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -14752,7 +14859,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -14766,7 +14873,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -14830,7 +14937,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -14848,7 +14955,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -14878,7 +14985,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
@@ -14896,7 +15003,7 @@
         <v>-1</v>
       </c>
       <c r="G1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="K1">
         <v>0</v>
@@ -14928,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -14960,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -14977,7 +15084,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -14995,7 +15102,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -15012,7 +15119,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -15030,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -15044,7 +15151,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -15062,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -15076,7 +15183,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -15094,7 +15201,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -15129,7 +15236,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -15175,7 +15282,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -15193,7 +15300,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -15207,7 +15314,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -15225,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -15255,7 +15362,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
@@ -15273,7 +15380,7 @@
         <v>-1</v>
       </c>
       <c r="G1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="K1">
         <v>0</v>
@@ -15287,7 +15394,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -15319,7 +15426,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -15337,7 +15444,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -15351,7 +15458,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -15369,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -15401,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -15436,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -15453,7 +15560,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -15471,7 +15578,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -15485,7 +15592,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -15503,7 +15610,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -15517,7 +15624,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -15535,7 +15642,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -15584,7 +15691,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -15602,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -15653,7 +15760,7 @@
         <v>-1</v>
       </c>
       <c r="G1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="K1">
         <v>0</v>
@@ -15685,7 +15792,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -15731,7 +15838,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -15749,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -15766,7 +15873,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -15784,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -15801,7 +15908,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -15819,7 +15926,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -15836,7 +15943,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -15854,7 +15961,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -15871,7 +15978,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -15889,7 +15996,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15906,7 +16013,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -15924,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -15941,7 +16048,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -15959,7 +16066,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -15976,7 +16083,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -15994,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -16011,7 +16118,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -16029,7 +16136,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -16046,7 +16153,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
@@ -16064,7 +16171,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -16081,7 +16188,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
@@ -16099,7 +16206,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -16116,7 +16223,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -16134,7 +16241,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -16151,7 +16258,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
@@ -16169,7 +16276,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -16186,7 +16293,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -16204,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -16221,7 +16328,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
@@ -16239,7 +16346,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -16256,7 +16363,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -16274,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -16291,7 +16398,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -16309,7 +16416,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -16326,7 +16433,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -16344,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -16361,7 +16468,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -16379,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -16428,7 +16535,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -16446,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -16476,7 +16583,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
@@ -16534,7 +16641,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -16563,7 +16670,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -16592,7 +16699,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -16621,7 +16728,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -16650,7 +16757,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -16679,7 +16786,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -16711,7 +16818,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -16836,7 +16943,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -16897,7 +17004,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -16929,7 +17036,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
@@ -16958,7 +17065,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -17004,7 +17111,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
@@ -17033,7 +17140,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -17062,7 +17169,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -17094,7 +17201,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -17126,7 +17233,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -17155,7 +17262,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -17245,7 +17352,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -17306,7 +17413,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -17338,7 +17445,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>

--- a/easyicc-web/easyicc-client-api/src/main/resources/doc/chat.xlsx
+++ b/easyicc-web/easyicc-client-api/src/main/resources/doc/chat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="37"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="19" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="JS_AUTO_RESPONSE_MESSAGE" sheetId="28" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="384">
   <si>
     <t>客服姓名</t>
   </si>
@@ -1227,6 +1227,18 @@
   </si>
   <si>
     <t>CHAT_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6040,8 +6052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8149,9 +8161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8280,7 +8290,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -8312,7 +8322,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -8344,7 +8354,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>383</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -8385,10 +8395,13 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P32"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -14346,7 +14359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
